--- a/data/raw/election/voters-age-sex-education/2023/Aksaray.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Aksaray.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:22:00-56296186987" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="37">
   <si>
     <t>Aksaray</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Sultanhanı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -678,10 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,11 +1020,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:C214"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1025,24 +1037,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,8 +2088,8 @@
       <c r="D30" s="5">
         <v>533</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.0150000000000001</v>
+      <c r="E30" s="7">
+        <v>2015</v>
       </c>
       <c r="F30" s="5">
         <v>530</v>
@@ -2085,8 +2097,8 @@
       <c r="G30" s="5">
         <v>792</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.1359999999999999</v>
+      <c r="H30" s="7">
+        <v>1136</v>
       </c>
       <c r="I30" s="5">
         <v>477</v>
@@ -2100,8 +2112,8 @@
       <c r="L30" s="5">
         <v>140</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.0759999999999996</v>
+      <c r="M30" s="7">
+        <v>6076</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2162,14 +2174,14 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
-        <v>4.2350000000000003</v>
-      </c>
-      <c r="H32" s="4">
-        <v>9.7910000000000004</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.6759999999999999</v>
+      <c r="G32" s="9">
+        <v>4235</v>
+      </c>
+      <c r="H32" s="9">
+        <v>9791</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1676</v>
       </c>
       <c r="J32" s="4">
         <v>20</v>
@@ -2180,8 +2192,8 @@
       <c r="L32" s="4">
         <v>249</v>
       </c>
-      <c r="M32" s="5">
-        <v>16.167000000000002</v>
+      <c r="M32" s="7">
+        <v>16167</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,14 +2213,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>3.8220000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>9.8689999999999998</v>
-      </c>
-      <c r="I33" s="4">
-        <v>3.1429999999999998</v>
+      <c r="G33" s="9">
+        <v>3822</v>
+      </c>
+      <c r="H33" s="9">
+        <v>9869</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3143</v>
       </c>
       <c r="J33" s="4">
         <v>31</v>
@@ -2219,8 +2231,8 @@
       <c r="L33" s="4">
         <v>198</v>
       </c>
-      <c r="M33" s="5">
-        <v>17.277999999999999</v>
+      <c r="M33" s="7">
+        <v>17278</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2242,14 +2254,14 @@
       <c r="F34" s="4">
         <v>86</v>
       </c>
-      <c r="G34" s="4">
-        <v>3.39</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3.27</v>
-      </c>
-      <c r="I34" s="4">
-        <v>3.5680000000000001</v>
+      <c r="G34" s="9">
+        <v>3390</v>
+      </c>
+      <c r="H34" s="9">
+        <v>3270</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3568</v>
       </c>
       <c r="J34" s="4">
         <v>295</v>
@@ -2260,8 +2272,8 @@
       <c r="L34" s="4">
         <v>116</v>
       </c>
-      <c r="M34" s="5">
-        <v>10.882999999999999</v>
+      <c r="M34" s="7">
+        <v>10883</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2281,14 +2293,14 @@
       <c r="F35" s="4">
         <v>115</v>
       </c>
-      <c r="G35" s="4">
-        <v>3.3780000000000001</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="I35" s="4">
-        <v>5.0629999999999997</v>
+      <c r="G35" s="9">
+        <v>3378</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2502</v>
+      </c>
+      <c r="I35" s="9">
+        <v>5063</v>
       </c>
       <c r="J35" s="4">
         <v>399</v>
@@ -2299,8 +2311,8 @@
       <c r="L35" s="4">
         <v>138</v>
       </c>
-      <c r="M35" s="5">
-        <v>11.95</v>
+      <c r="M35" s="7">
+        <v>11950</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2319,17 +2331,17 @@
       <c r="E36" s="4">
         <v>51</v>
       </c>
-      <c r="F36" s="4">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.278</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.8889999999999998</v>
+      <c r="F36" s="9">
+        <v>2256</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1434</v>
+      </c>
+      <c r="H36" s="9">
+        <v>3278</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2889</v>
       </c>
       <c r="J36" s="4">
         <v>492</v>
@@ -2340,8 +2352,8 @@
       <c r="L36" s="4">
         <v>158</v>
       </c>
-      <c r="M36" s="5">
-        <v>10.680999999999999</v>
+      <c r="M36" s="7">
+        <v>10681</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2358,17 +2370,17 @@
       <c r="E37" s="4">
         <v>112</v>
       </c>
-      <c r="F37" s="4">
-        <v>2.859</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="H37" s="4">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="I37" s="4">
-        <v>3.3069999999999999</v>
+      <c r="F37" s="9">
+        <v>2859</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1176</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2467</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3307</v>
       </c>
       <c r="J37" s="4">
         <v>487</v>
@@ -2379,8 +2391,8 @@
       <c r="L37" s="4">
         <v>153</v>
       </c>
-      <c r="M37" s="5">
-        <v>10.773</v>
+      <c r="M37" s="7">
+        <v>10773</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2399,17 +2411,17 @@
       <c r="E38" s="4">
         <v>751</v>
       </c>
-      <c r="F38" s="4">
-        <v>2.468</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1.363</v>
-      </c>
-      <c r="H38" s="4">
-        <v>3.63</v>
-      </c>
-      <c r="I38" s="4">
-        <v>2.5350000000000001</v>
+      <c r="F38" s="9">
+        <v>2468</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1363</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3630</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2535</v>
       </c>
       <c r="J38" s="4">
         <v>567</v>
@@ -2420,8 +2432,8 @@
       <c r="L38" s="4">
         <v>230</v>
       </c>
-      <c r="M38" s="5">
-        <v>11.702999999999999</v>
+      <c r="M38" s="7">
+        <v>11703</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,20 +2447,20 @@
       <c r="D39" s="4">
         <v>84</v>
       </c>
-      <c r="E39" s="4">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1.266</v>
-      </c>
-      <c r="H39" s="4">
-        <v>2.585</v>
-      </c>
-      <c r="I39" s="4">
-        <v>2.2309999999999999</v>
+      <c r="E39" s="9">
+        <v>2257</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2283</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1266</v>
+      </c>
+      <c r="H39" s="9">
+        <v>2585</v>
+      </c>
+      <c r="I39" s="9">
+        <v>2231</v>
       </c>
       <c r="J39" s="4">
         <v>436</v>
@@ -2459,8 +2471,8 @@
       <c r="L39" s="4">
         <v>175</v>
       </c>
-      <c r="M39" s="5">
-        <v>11.449</v>
+      <c r="M39" s="7">
+        <v>11449</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2476,20 +2488,20 @@
       <c r="D40" s="4">
         <v>18</v>
       </c>
-      <c r="E40" s="4">
-        <v>1.4359999999999999</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="H40" s="4">
-        <v>3.4060000000000001</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2.1030000000000002</v>
+      <c r="E40" s="9">
+        <v>1436</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1727</v>
+      </c>
+      <c r="G40" s="9">
+        <v>2107</v>
+      </c>
+      <c r="H40" s="9">
+        <v>3406</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2103</v>
       </c>
       <c r="J40" s="4">
         <v>609</v>
@@ -2500,8 +2512,8 @@
       <c r="L40" s="4">
         <v>293</v>
       </c>
-      <c r="M40" s="5">
-        <v>11.821999999999999</v>
+      <c r="M40" s="7">
+        <v>11822</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,20 +2527,20 @@
       <c r="D41" s="4">
         <v>74</v>
       </c>
-      <c r="E41" s="4">
-        <v>3.4649999999999999</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.331</v>
-      </c>
-      <c r="G41" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.724</v>
+      <c r="E41" s="9">
+        <v>3465</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1331</v>
+      </c>
+      <c r="G41" s="9">
+        <v>2040</v>
+      </c>
+      <c r="H41" s="9">
+        <v>2237</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1724</v>
       </c>
       <c r="J41" s="4">
         <v>336</v>
@@ -2539,8 +2551,8 @@
       <c r="L41" s="4">
         <v>196</v>
       </c>
-      <c r="M41" s="5">
-        <v>11.542</v>
+      <c r="M41" s="7">
+        <v>11542</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2556,20 +2568,20 @@
       <c r="D42" s="4">
         <v>23</v>
       </c>
-      <c r="E42" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.613</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.738</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.6990000000000001</v>
+      <c r="E42" s="9">
+        <v>1525</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1613</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1738</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2538</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1699</v>
       </c>
       <c r="J42" s="4">
         <v>355</v>
@@ -2580,8 +2592,8 @@
       <c r="L42" s="4">
         <v>288</v>
       </c>
-      <c r="M42" s="5">
-        <v>9.8970000000000002</v>
+      <c r="M42" s="7">
+        <v>9897</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,20 +2607,20 @@
       <c r="D43" s="4">
         <v>128</v>
       </c>
-      <c r="E43" s="4">
-        <v>3.73</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1.569</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1.0509999999999999</v>
+      <c r="E43" s="9">
+        <v>3730</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1433</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1651</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1569</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1051</v>
       </c>
       <c r="J43" s="4">
         <v>133</v>
@@ -2619,8 +2631,8 @@
       <c r="L43" s="4">
         <v>198</v>
       </c>
-      <c r="M43" s="5">
-        <v>10.02</v>
+      <c r="M43" s="7">
+        <v>10020</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2636,20 +2648,20 @@
       <c r="D44" s="4">
         <v>20</v>
       </c>
-      <c r="E44" s="4">
-        <v>1.659</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1.3360000000000001</v>
+      <c r="E44" s="9">
+        <v>1659</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1557</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1522</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1789</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1336</v>
       </c>
       <c r="J44" s="4">
         <v>209</v>
@@ -2660,8 +2672,8 @@
       <c r="L44" s="4">
         <v>269</v>
       </c>
-      <c r="M44" s="5">
-        <v>8.4649999999999999</v>
+      <c r="M44" s="7">
+        <v>8465</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,17 +2687,17 @@
       <c r="D45" s="4">
         <v>218</v>
       </c>
-      <c r="E45" s="4">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1.306</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1.099</v>
+      <c r="E45" s="9">
+        <v>3838</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1306</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1320</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1099</v>
       </c>
       <c r="I45" s="4">
         <v>582</v>
@@ -2699,8 +2711,8 @@
       <c r="L45" s="4">
         <v>246</v>
       </c>
-      <c r="M45" s="5">
-        <v>8.8469999999999995</v>
+      <c r="M45" s="7">
+        <v>8847</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,17 +2728,17 @@
       <c r="D46" s="4">
         <v>49</v>
       </c>
-      <c r="E46" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1.2330000000000001</v>
+      <c r="E46" s="9">
+        <v>2090</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1253</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1329</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1233</v>
       </c>
       <c r="I46" s="4">
         <v>900</v>
@@ -2740,8 +2752,8 @@
       <c r="L46" s="4">
         <v>276</v>
       </c>
-      <c r="M46" s="5">
-        <v>7.2889999999999997</v>
+      <c r="M46" s="7">
+        <v>7289</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2767,8 @@
       <c r="D47" s="4">
         <v>389</v>
       </c>
-      <c r="E47" s="4">
-        <v>3.948</v>
+      <c r="E47" s="9">
+        <v>3948</v>
       </c>
       <c r="F47" s="4">
         <v>767</v>
@@ -2779,8 +2791,8 @@
       <c r="L47" s="4">
         <v>254</v>
       </c>
-      <c r="M47" s="5">
-        <v>7.407</v>
+      <c r="M47" s="7">
+        <v>7407</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,8 +2808,8 @@
       <c r="D48" s="4">
         <v>54</v>
       </c>
-      <c r="E48" s="4">
-        <v>2.2930000000000001</v>
+      <c r="E48" s="9">
+        <v>2293</v>
       </c>
       <c r="F48" s="4">
         <v>720</v>
@@ -2820,8 +2832,8 @@
       <c r="L48" s="4">
         <v>244</v>
       </c>
-      <c r="M48" s="5">
-        <v>5.6779999999999999</v>
+      <c r="M48" s="7">
+        <v>5678</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,8 +2847,8 @@
       <c r="D49" s="4">
         <v>534</v>
       </c>
-      <c r="E49" s="4">
-        <v>3.6789999999999998</v>
+      <c r="E49" s="9">
+        <v>3679</v>
       </c>
       <c r="F49" s="4">
         <v>326</v>
@@ -2859,8 +2871,8 @@
       <c r="L49" s="4">
         <v>230</v>
       </c>
-      <c r="M49" s="5">
-        <v>6.3360000000000003</v>
+      <c r="M49" s="7">
+        <v>6336</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,8 +2888,8 @@
       <c r="D50" s="4">
         <v>91</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.2120000000000002</v>
+      <c r="E50" s="9">
+        <v>2212</v>
       </c>
       <c r="F50" s="4">
         <v>354</v>
@@ -2900,8 +2912,8 @@
       <c r="L50" s="4">
         <v>230</v>
       </c>
-      <c r="M50" s="5">
-        <v>4.391</v>
+      <c r="M50" s="7">
+        <v>4391</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,8 +2927,8 @@
       <c r="D51" s="4">
         <v>661</v>
       </c>
-      <c r="E51" s="4">
-        <v>2.6230000000000002</v>
+      <c r="E51" s="9">
+        <v>2623</v>
       </c>
       <c r="F51" s="4">
         <v>110</v>
@@ -2939,8 +2951,8 @@
       <c r="L51" s="4">
         <v>222</v>
       </c>
-      <c r="M51" s="5">
-        <v>4.9720000000000004</v>
+      <c r="M51" s="7">
+        <v>4972</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2956,8 +2968,8 @@
       <c r="D52" s="4">
         <v>162</v>
       </c>
-      <c r="E52" s="4">
-        <v>2.0990000000000002</v>
+      <c r="E52" s="9">
+        <v>2099</v>
       </c>
       <c r="F52" s="4">
         <v>142</v>
@@ -2980,8 +2992,8 @@
       <c r="L52" s="4">
         <v>193</v>
       </c>
-      <c r="M52" s="5">
-        <v>3.597</v>
+      <c r="M52" s="7">
+        <v>3597</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,14 +3001,14 @@
       <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="4">
-        <v>1.1830000000000001</v>
+      <c r="C53" s="9">
+        <v>1183</v>
       </c>
       <c r="D53" s="4">
         <v>779</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.772</v>
+      <c r="E53" s="9">
+        <v>1772</v>
       </c>
       <c r="F53" s="4">
         <v>34</v>
@@ -3019,8 +3031,8 @@
       <c r="L53" s="4">
         <v>184</v>
       </c>
-      <c r="M53" s="5">
-        <v>4.2590000000000003</v>
+      <c r="M53" s="7">
+        <v>4259</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3036,8 +3048,8 @@
       <c r="D54" s="4">
         <v>563</v>
       </c>
-      <c r="E54" s="4">
-        <v>2.0129999999999999</v>
+      <c r="E54" s="9">
+        <v>2013</v>
       </c>
       <c r="F54" s="4">
         <v>42</v>
@@ -3060,8 +3072,8 @@
       <c r="L54" s="4">
         <v>161</v>
       </c>
-      <c r="M54" s="5">
-        <v>3.6480000000000001</v>
+      <c r="M54" s="7">
+        <v>3648</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,14 +3081,14 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>3.1360000000000001</v>
+      <c r="C55" s="9">
+        <v>3136</v>
       </c>
       <c r="D55" s="4">
         <v>909</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.208</v>
+      <c r="E55" s="9">
+        <v>1208</v>
       </c>
       <c r="F55" s="4">
         <v>13</v>
@@ -3099,8 +3111,8 @@
       <c r="L55" s="4">
         <v>162</v>
       </c>
-      <c r="M55" s="5">
-        <v>5.6029999999999998</v>
+      <c r="M55" s="7">
+        <v>5603</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3108,38 +3120,38 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>6.899</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5.5640000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>43.136000000000003</v>
-      </c>
-      <c r="F56" s="5">
-        <v>22.797999999999998</v>
-      </c>
-      <c r="G56" s="5">
-        <v>35.183</v>
-      </c>
-      <c r="H56" s="5">
-        <v>54.741999999999997</v>
-      </c>
-      <c r="I56" s="5">
-        <v>35.840000000000003</v>
-      </c>
-      <c r="J56" s="5">
-        <v>4.601</v>
+      <c r="C56" s="7">
+        <v>6899</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5564</v>
+      </c>
+      <c r="E56" s="7">
+        <v>43136</v>
+      </c>
+      <c r="F56" s="7">
+        <v>22798</v>
+      </c>
+      <c r="G56" s="7">
+        <v>35183</v>
+      </c>
+      <c r="H56" s="7">
+        <v>54742</v>
+      </c>
+      <c r="I56" s="7">
+        <v>35840</v>
+      </c>
+      <c r="J56" s="7">
+        <v>4601</v>
       </c>
       <c r="K56" s="5">
         <v>831</v>
       </c>
-      <c r="L56" s="5">
-        <v>5.0629999999999997</v>
-      </c>
-      <c r="M56" s="5">
-        <v>214.65700000000001</v>
+      <c r="L56" s="7">
+        <v>5063</v>
+      </c>
+      <c r="M56" s="7">
+        <v>214657</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3218,8 +3230,8 @@
       <c r="L58" s="4">
         <v>22</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.853</v>
+      <c r="M58" s="7">
+        <v>1853</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3257,8 +3269,8 @@
       <c r="L59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.788</v>
+      <c r="M59" s="7">
+        <v>1788</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,8 +3310,8 @@
       <c r="L60" s="4">
         <v>4</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.167</v>
+      <c r="M60" s="7">
+        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,8 +3349,8 @@
       <c r="L61" s="4">
         <v>4</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.006</v>
+      <c r="M61" s="7">
+        <v>1006</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,20 +4164,20 @@
       <c r="D82" s="5">
         <v>639</v>
       </c>
-      <c r="E82" s="5">
-        <v>6.3529999999999998</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.742</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.4359999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.673</v>
+      <c r="E82" s="7">
+        <v>6353</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2384</v>
+      </c>
+      <c r="G82" s="7">
+        <v>3742</v>
+      </c>
+      <c r="H82" s="7">
+        <v>3436</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1673</v>
       </c>
       <c r="J82" s="5">
         <v>161</v>
@@ -4176,8 +4188,8 @@
       <c r="L82" s="5">
         <v>51</v>
       </c>
-      <c r="M82" s="5">
-        <v>19.056000000000001</v>
+      <c r="M82" s="7">
+        <v>19056</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5190,17 +5202,17 @@
       <c r="D108" s="5">
         <v>688</v>
       </c>
-      <c r="E108" s="5">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.968</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.415</v>
+      <c r="E108" s="7">
+        <v>3647</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1580</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2968</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2415</v>
       </c>
       <c r="I108" s="5">
         <v>684</v>
@@ -5214,8 +5226,8 @@
       <c r="L108" s="5">
         <v>680</v>
       </c>
-      <c r="M108" s="5">
-        <v>13.606</v>
+      <c r="M108" s="7">
+        <v>13606</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6228,17 +6240,17 @@
       <c r="D134" s="5">
         <v>393</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.6579999999999999</v>
+      <c r="E134" s="7">
+        <v>2658</v>
       </c>
       <c r="F134" s="5">
         <v>901</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.542</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.4359999999999999</v>
+      <c r="G134" s="7">
+        <v>1542</v>
+      </c>
+      <c r="H134" s="7">
+        <v>1436</v>
       </c>
       <c r="I134" s="5">
         <v>476</v>
@@ -6252,8 +6264,8 @@
       <c r="L134" s="5">
         <v>167</v>
       </c>
-      <c r="M134" s="5">
-        <v>7.8719999999999999</v>
+      <c r="M134" s="7">
+        <v>7872</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6332,8 +6344,8 @@
       <c r="L136" s="4">
         <v>26</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.5049999999999999</v>
+      <c r="M136" s="7">
+        <v>1505</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6371,8 +6383,8 @@
       <c r="L137" s="4">
         <v>34</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.5760000000000001</v>
+      <c r="M137" s="7">
+        <v>1576</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6652,8 +6664,8 @@
       <c r="L144" s="4">
         <v>35</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.004</v>
+      <c r="M144" s="7">
+        <v>1004</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6892,8 +6904,8 @@
       <c r="L150" s="4">
         <v>26</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M150" s="7">
+        <v>1033</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6931,8 +6943,8 @@
       <c r="L151" s="4">
         <v>34</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.123</v>
+      <c r="M151" s="7">
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7011,8 +7023,8 @@
       <c r="L153" s="4">
         <v>26</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.054</v>
+      <c r="M153" s="7">
+        <v>1054</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7251,8 +7263,8 @@
       <c r="L159" s="4">
         <v>27</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.1679999999999999</v>
+      <c r="M159" s="7">
+        <v>1168</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7260,26 +7272,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.377</v>
-      </c>
-      <c r="E160" s="5">
-        <v>6.7859999999999996</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.6789999999999998</v>
+      <c r="C160" s="7">
+        <v>1112</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1377</v>
+      </c>
+      <c r="E160" s="7">
+        <v>6786</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2172</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3164</v>
+      </c>
+      <c r="H160" s="7">
+        <v>4975</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2679</v>
       </c>
       <c r="J160" s="5">
         <v>254</v>
@@ -7290,8 +7302,8 @@
       <c r="L160" s="5">
         <v>668</v>
       </c>
-      <c r="M160" s="5">
-        <v>23.210999999999999</v>
+      <c r="M160" s="7">
+        <v>23211</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8304,8 +8316,8 @@
       <c r="D186" s="5">
         <v>289</v>
       </c>
-      <c r="E186" s="5">
-        <v>1.127</v>
+      <c r="E186" s="7">
+        <v>1127</v>
       </c>
       <c r="F186" s="5">
         <v>259</v>
@@ -8328,8 +8340,8 @@
       <c r="L186" s="5">
         <v>184</v>
       </c>
-      <c r="M186" s="5">
-        <v>3.714</v>
+      <c r="M186" s="7">
+        <v>3714</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9342,17 +9354,17 @@
       <c r="D212" s="5">
         <v>294</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.016</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.6890000000000001</v>
+      <c r="E212" s="7">
+        <v>2016</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1265</v>
+      </c>
+      <c r="G212" s="7">
+        <v>1547</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1689</v>
       </c>
       <c r="I212" s="5">
         <v>764</v>
@@ -9366,8 +9378,18 @@
       <c r="L212" s="5">
         <v>32</v>
       </c>
-      <c r="M212" s="5">
-        <v>8.0869999999999997</v>
+      <c r="M212" s="7">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
